--- a/app/src/test/java/Observers/Form_Change_Concrete_23_Aug_1pm.xlsx
+++ b/app/src/test/java/Observers/Form_Change_Concrete_23_Aug_1pm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Documents\Uni 2018\Sem 2\Capstone\Testing\Observers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6924AB-77A2-4A2A-913B-639B6A282693}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0EB0545-C882-4AD1-895D-90A034D60AF4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{A330BECD-E836-4AC6-938E-7E613B009CCC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{A330BECD-E836-4AC6-938E-7E613B009CCC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,7 +114,7 @@
     <t>Form_Change_Concrete_Unit_Test</t>
   </si>
   <si>
-    <t>Purpose: Unit test the locial structure of the Form_Change_Concrete Class its Interface</t>
+    <t>Purpose: Unit test the logical structure of the Form_Change_Concrete Class its Interface</t>
   </si>
 </sst>
 </file>
@@ -192,13 +192,13 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -517,7 +517,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E3"/>
+      <selection activeCell="A5" sqref="A5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,60 +528,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
